--- a/data/survival/Westcott/B_survival_09122024.xlsx
+++ b/data/survival/Westcott/B_survival_09122024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Library/Mobile Documents/com~apple~CloudDocs/Documents/project-gigas-conditioning-GL/data/survival/Westcott/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3FBF45F-DCF3-4347-ACD8-63E2B4579F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13513F35-F757-B54B-84C3-905894D5BA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{CA941532-24D2-184F-8B30-D5633C401736}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J118" sqref="J118"/>
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4374,6 +4374,12 @@
       </c>
       <c r="H118">
         <v>7</v>
+      </c>
+      <c r="I118">
+        <v>50</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/survival/Westcott/B_survival_09122024.xlsx
+++ b/data/survival/Westcott/B_survival_09122024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Library/Mobile Documents/com~apple~CloudDocs/Documents/project-gigas-conditioning-GL/data/survival/Westcott/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13513F35-F757-B54B-84C3-905894D5BA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5E8C16-98D9-BC45-B063-E81524516899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{CA941532-24D2-184F-8B30-D5633C401736}"/>
+    <workbookView xWindow="13280" yWindow="780" windowWidth="28040" windowHeight="17440" xr2:uid="{CA941532-24D2-184F-8B30-D5633C401736}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="39">
   <si>
     <t>bag_num</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Ariana</t>
+  </si>
+  <si>
+    <t>Counted 46 in photo</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCF0E53-B26D-5F4D-A696-5BB849B2395F}">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="I126" sqref="I126:I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4475,6 +4478,329 @@
         <v>46</v>
       </c>
       <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G122" t="s">
+        <v>37</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>48</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G123" t="s">
+        <v>37</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>51</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" t="s">
+        <v>30</v>
+      </c>
+      <c r="F124" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G124" t="s">
+        <v>37</v>
+      </c>
+      <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124">
+        <v>49</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G125" t="s">
+        <v>37</v>
+      </c>
+      <c r="H125">
+        <v>4</v>
+      </c>
+      <c r="I125">
+        <v>51</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G126" t="s">
+        <v>37</v>
+      </c>
+      <c r="H126">
+        <v>5</v>
+      </c>
+      <c r="I126">
+        <v>43</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G127" t="s">
+        <v>37</v>
+      </c>
+      <c r="H127">
+        <v>6</v>
+      </c>
+      <c r="I127">
+        <v>47</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" t="s">
+        <v>30</v>
+      </c>
+      <c r="F128" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G128" t="s">
+        <v>37</v>
+      </c>
+      <c r="H128">
+        <v>7</v>
+      </c>
+      <c r="I128">
+        <v>50</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G129" t="s">
+        <v>37</v>
+      </c>
+      <c r="H129">
+        <v>8</v>
+      </c>
+      <c r="I129">
+        <v>50</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G130" t="s">
+        <v>37</v>
+      </c>
+      <c r="H130">
+        <v>9</v>
+      </c>
+      <c r="I130">
+        <v>48</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G131" t="s">
+        <v>37</v>
+      </c>
+      <c r="H131">
+        <v>10</v>
+      </c>
+      <c r="I131">
+        <v>46</v>
+      </c>
+      <c r="J131">
         <v>0</v>
       </c>
     </row>
